--- a/results/mp/logistic/corona/confidence/168/masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,78 +43,78 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -142,124 +142,109 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>support</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -617,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +613,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
@@ -786,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7945205479452054</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
@@ -836,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -936,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1045,13 @@
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.7878787878787878</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.559322033898305</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7735849056603774</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.544973544973545</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C13">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5155038759689923</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C14">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.44</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.436241610738255</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>0.765625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3928571428571428</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.75625</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3805555555555555</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2727272727272727</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2555555555555555</v>
+        <v>0.36</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1628,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1686,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1447721179624665</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>319</v>
+        <v>70</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K23">
-        <v>0.6984126984126984</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07666666666666666</v>
+        <v>0.1367292225201072</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K24">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,37 +1771,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01264222503160556</v>
+        <v>0.01095659502739149</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F25">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,37 +1821,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0103126007089913</v>
+        <v>0.009831460674157303</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3071</v>
+        <v>2115</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K26">
-        <v>0.62</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1878,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1871,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.008882655446470314</v>
+        <v>0.009674298613350531</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0.17</v>
@@ -1904,19 +1889,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2120</v>
+        <v>3071</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6147058823529412</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L27">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,49 +1921,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006609642301710731</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="F28">
-        <v>0.62</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>5110</v>
+        <v>5115</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.5938566552901023</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,37 +1971,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006042296072507553</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4277</v>
+        <v>4280</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K29">
-        <v>0.5957446808510638</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,37 +2021,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005434782608695652</v>
+        <v>0.004619401486242217</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F30">
-        <v>0.49</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>4941</v>
+        <v>4956</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K30">
-        <v>0.5732217573221757</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2071,13 @@
         <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5627118644067797</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L31">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2104,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2112,13 +2097,13 @@
         <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2130,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2138,13 +2123,13 @@
         <v>67</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.52</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2156,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2164,25 +2149,25 @@
         <v>68</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>46</v>
-      </c>
-      <c r="M34">
-        <v>46</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2190,13 +2175,13 @@
         <v>69</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2208,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2216,13 +2201,13 @@
         <v>70</v>
       </c>
       <c r="K36">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2234,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2242,13 +2227,13 @@
         <v>71</v>
       </c>
       <c r="K37">
-        <v>0.4222222222222222</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2260,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2268,13 +2253,13 @@
         <v>72</v>
       </c>
       <c r="K38">
-        <v>0.34375</v>
+        <v>0.328125</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2286,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2294,13 +2279,13 @@
         <v>73</v>
       </c>
       <c r="K39">
-        <v>0.3389830508474576</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2312,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2320,25 +2305,25 @@
         <v>74</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.02838063439065109</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2346,25 +2331,25 @@
         <v>75</v>
       </c>
       <c r="K41">
-        <v>0.3287671232876712</v>
+        <v>0.007806080525883319</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2372,233 +2357,51 @@
         <v>76</v>
       </c>
       <c r="K42">
-        <v>0.03010033444816054</v>
+        <v>0.0075046904315197</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1160</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="K43">
-        <v>0.01238738738738739</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="O43">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44">
-        <v>0.01198738170347003</v>
-      </c>
-      <c r="L44">
-        <v>19</v>
-      </c>
-      <c r="M44">
-        <v>28</v>
-      </c>
-      <c r="N44">
-        <v>0.68</v>
-      </c>
-      <c r="O44">
-        <v>0.32</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45">
-        <v>0.01130653266331658</v>
-      </c>
-      <c r="L45">
-        <v>27</v>
-      </c>
-      <c r="M45">
-        <v>33</v>
-      </c>
-      <c r="N45">
-        <v>0.82</v>
-      </c>
-      <c r="O45">
-        <v>0.18</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46">
-        <v>0.008645533141210375</v>
-      </c>
-      <c r="L46">
-        <v>21</v>
-      </c>
-      <c r="M46">
-        <v>37</v>
-      </c>
-      <c r="N46">
-        <v>0.57</v>
-      </c>
-      <c r="O46">
-        <v>0.43</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47">
-        <v>0.00815814245371823</v>
-      </c>
-      <c r="L47">
-        <v>26</v>
-      </c>
-      <c r="M47">
-        <v>40</v>
-      </c>
-      <c r="N47">
-        <v>0.65</v>
-      </c>
-      <c r="O47">
-        <v>0.35</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K48">
-        <v>0.005811250581125058</v>
-      </c>
-      <c r="L48">
-        <v>25</v>
-      </c>
-      <c r="M48">
-        <v>51</v>
-      </c>
-      <c r="N48">
-        <v>0.49</v>
-      </c>
-      <c r="O48">
-        <v>0.51</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49">
-        <v>0.005634936606963172</v>
-      </c>
-      <c r="L49">
-        <v>28</v>
-      </c>
-      <c r="M49">
-        <v>55</v>
-      </c>
-      <c r="N49">
-        <v>0.51</v>
-      </c>
-      <c r="O49">
-        <v>0.49</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50">
-        <v>0.004092769440654843</v>
-      </c>
-      <c r="L50">
-        <v>21</v>
-      </c>
-      <c r="M50">
-        <v>55</v>
-      </c>
-      <c r="N50">
-        <v>0.38</v>
-      </c>
-      <c r="O50">
-        <v>0.62</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5110</v>
+        <v>4280</v>
       </c>
     </row>
   </sheetData>
